--- a/OnlineData.xlsx
+++ b/OnlineData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="PowerUnitData" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="DemandData" sheetId="6" r:id="rId6"/>
     <sheet name="NetworkFigures" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>EL node</t>
   </si>
@@ -126,12 +126,6 @@
     <t>Pipeline</t>
   </si>
   <si>
-    <t>Natural gas flow constant</t>
-  </si>
-  <si>
-    <t>Linepack constant</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -144,12 +138,6 @@
     <t>Initial linepack (kcf)</t>
   </si>
   <si>
-    <t>Min pressure</t>
-  </si>
-  <si>
-    <t>Max pressure</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -163,12 +151,45 @@
   </si>
   <si>
     <t>Share (%)</t>
+  </si>
+  <si>
+    <t>Cost of electricity load shedding</t>
+  </si>
+  <si>
+    <t>Cost of natural gas  load shedding</t>
+  </si>
+  <si>
+    <t>$/MWh</t>
+  </si>
+  <si>
+    <t>$/kcf</t>
+  </si>
+  <si>
+    <t>EL demand (MW)</t>
+  </si>
+  <si>
+    <t>NG demand (kcf/h)</t>
+  </si>
+  <si>
+    <t>Linepack constant (kcf/psig)</t>
+  </si>
+  <si>
+    <t>Natural gas flow constant (kcf/(psig h))</t>
+  </si>
+  <si>
+    <t>Min pressure (psig)</t>
+  </si>
+  <si>
+    <t>Max pressure (psig)</t>
+  </si>
+  <si>
+    <t>Wind power plant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,7 +262,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB7D9D8-B8BC-47B9-B4C9-C7F90E2B16FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCB7D9D8-B8BC-47B9-B4C9-C7F90E2B16FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -291,7 +312,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA05CD3-1B82-4D16-9891-9C6C8B298AFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEA05CD3-1B82-4D16-9891-9C6C8B298AFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -589,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -653,10 +674,10 @@
         <v>40</v>
       </c>
       <c r="F2" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>3</v>
@@ -686,10 +707,10 @@
         <v>40</v>
       </c>
       <c r="F3" s="2">
-        <v>102</v>
-      </c>
-      <c r="G3" s="2">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>4</v>
@@ -719,10 +740,10 @@
         <v>70</v>
       </c>
       <c r="F4" s="2">
-        <v>107</v>
-      </c>
-      <c r="G4" s="2">
-        <v>100</v>
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>4</v>
@@ -752,10 +773,10 @@
         <v>180</v>
       </c>
       <c r="F5" s="2">
-        <v>113</v>
-      </c>
-      <c r="G5" s="2">
-        <v>100</v>
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
@@ -785,10 +806,10 @@
         <v>60</v>
       </c>
       <c r="F6" s="2">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>3</v>
@@ -818,10 +839,10 @@
         <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>115</v>
-      </c>
-      <c r="G7" s="2">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>4</v>
@@ -851,10 +872,10 @@
         <v>30</v>
       </c>
       <c r="F8" s="2">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>3</v>
@@ -884,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>118</v>
-      </c>
-      <c r="G9" s="2">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>4</v>
@@ -917,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>121</v>
-      </c>
-      <c r="G10" s="2">
-        <v>100</v>
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>4</v>
@@ -950,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>122</v>
-      </c>
-      <c r="G11" s="2">
-        <v>100</v>
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>4</v>
@@ -983,10 +1004,10 @@
         <v>40</v>
       </c>
       <c r="F12" s="2">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>3</v>
@@ -1016,10 +1037,10 @@
         <v>40</v>
       </c>
       <c r="F13" s="2">
-        <v>123</v>
-      </c>
-      <c r="G13" s="2">
-        <v>100</v>
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>4</v>
@@ -1031,6 +1052,30 @@
         <v>32.22</v>
       </c>
       <c r="K13" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1092,7 +1137,7 @@
         <v>1000</v>
       </c>
       <c r="F2" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
         <v>2</v>
@@ -1115,7 +1160,7 @@
         <v>1000</v>
       </c>
       <c r="F3" s="2">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2">
         <v>2.4</v>
@@ -1138,7 +1183,7 @@
         <v>1000</v>
       </c>
       <c r="F4" s="2">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2">
         <v>2.8</v>
@@ -1151,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1160,11 +1205,12 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1184,10 +1230,13 @@
         <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1207,10 +1256,13 @@
         <v>1000</v>
       </c>
       <c r="G2" s="2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2">
         <v>2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1230,6 +1282,9 @@
         <v>1000</v>
       </c>
       <c r="G3" s="2">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -1240,7 +1295,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1254,7 +1309,7 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1271,15 +1326,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>1.46E-2</v>
@@ -1288,15 +1343,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>0.2253</v>
@@ -1305,15 +1360,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
         <v>9.0700000000000003E-2</v>
@@ -1322,15 +1377,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>0.1356</v>
@@ -1339,15 +1394,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>0.20499999999999999</v>
@@ -1356,15 +1411,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>0.12709999999999999</v>
@@ -1373,15 +1428,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
         <v>8.4000000000000005E-2</v>
@@ -1390,15 +1445,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <v>0.111</v>
@@ -1407,15 +1462,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>9.4E-2</v>
@@ -1424,15 +1479,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>6.4199999999999993E-2</v>
@@ -1441,15 +1496,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2">
         <v>6.5199999999999994E-2</v>
@@ -1458,15 +1513,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
         <v>0.1762</v>
@@ -1475,15 +1530,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
         <v>0.1762</v>
@@ -1492,15 +1547,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>8.4000000000000005E-2</v>
@@ -1509,15 +1564,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
         <v>8.4000000000000005E-2</v>
@@ -1526,15 +1581,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2">
         <v>8.4000000000000005E-2</v>
@@ -1543,15 +1598,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
         <v>8.4000000000000005E-2</v>
@@ -1560,15 +1615,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2">
         <v>4.8800000000000003E-2</v>
@@ -1577,15 +1632,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2">
         <v>4.2599999999999999E-2</v>
@@ -1594,15 +1649,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2">
         <v>4.8800000000000003E-2</v>
@@ -1611,15 +1666,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2">
         <v>9.8500000000000004E-2</v>
@@ -1628,15 +1683,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2">
         <v>8.8400000000000006E-2</v>
@@ -1645,15 +1700,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2">
         <v>5.9400000000000001E-2</v>
@@ -1662,15 +1717,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2">
         <v>1.72E-2</v>
@@ -1679,15 +1734,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2">
         <v>2.4899999999999999E-2</v>
@@ -1696,15 +1751,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2">
         <v>5.2900000000000003E-2</v>
@@ -1713,15 +1768,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2">
         <v>2.63E-2</v>
@@ -1730,15 +1785,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2">
         <v>2.3400000000000001E-2</v>
@@ -1747,15 +1802,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2">
         <v>1.43E-2</v>
@@ -1764,15 +1819,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2">
         <v>0.1069</v>
@@ -1781,15 +1836,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="D32" s="2">
         <v>1.32E-2</v>
@@ -1798,15 +1853,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="C33" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2">
         <v>2.0299999999999999E-2</v>
@@ -1815,15 +1870,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C34" s="2">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="D34" s="2">
         <v>1.12E-2</v>
@@ -1832,15 +1887,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2">
         <v>6.9199999999999998E-2</v>
@@ -1849,12 +1904,6 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1869,12 +1918,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1890,19 +1939,19 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1910,16 +1959,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -1936,16 +1985,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2">
         <v>1.2</v>
@@ -1962,16 +2011,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -1988,16 +2037,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -2014,16 +2063,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -2040,16 +2089,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -2066,16 +2115,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
         <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -2092,16 +2141,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
         <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2118,16 +2167,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2">
         <v>1.3</v>
@@ -2144,16 +2193,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -2170,16 +2219,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
         <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -2196,16 +2245,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
         <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2222,10 +2271,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2367,19 +2416,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -2456,7 +2505,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2">
         <v>2108.7264843520602</v>
@@ -2533,7 +2582,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2">
         <v>7000</v>
@@ -2610,13 +2659,13 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2627,7 +2676,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -2638,7 +2687,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -2649,7 +2698,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>103</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -2660,7 +2709,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>104</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -2671,7 +2720,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -2682,7 +2731,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>106</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -2693,7 +2742,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="C12" s="2">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -2704,7 +2753,7 @@
         <v>0.06</v>
       </c>
       <c r="C13" s="2">
-        <v>108</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -2715,7 +2764,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>109</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -2726,7 +2775,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="C15" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -2737,7 +2786,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="C16" s="2">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2748,7 +2797,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="C17" s="2">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2759,7 +2808,7 @@
         <v>0.111</v>
       </c>
       <c r="C18" s="2">
-        <v>115</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,7 +2819,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C19" s="2">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,7 +2830,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="C20" s="2">
-        <v>118</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2792,7 +2841,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="C21" s="2">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2803,18 +2852,18 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C22" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,7 +2874,7 @@
         <v>0.25</v>
       </c>
       <c r="C25" s="2">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,7 +2885,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" s="2">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,7 +2896,7 @@
         <v>0.35</v>
       </c>
       <c r="C27" s="2">
-        <v>106</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,7 +2907,29 @@
         <v>0.15</v>
       </c>
       <c r="C28" s="2">
-        <v>112</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2">
+        <v>600</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2870,7 +2941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
